--- a/testdata/bigger-testdata.xlsx
+++ b/testdata/bigger-testdata.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\mariana\repos\gitea\foz\mango-metadata-from-tables\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3FC91F-1C93-436F-831F-4E4D1D44C1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B800849-35AF-4C91-AB00-33153A0A0A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="folder1" sheetId="2" r:id="rId1"/>
-    <sheet name="random" sheetId="4" r:id="rId2"/>
+    <sheet name="  random " sheetId="4" r:id="rId2"/>
     <sheet name="folder2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
